--- a/Resource/excel/2002-名字随机.xlsx
+++ b/Resource/excel/2002-名字随机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="16200" windowHeight="23355"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <t>名字符号</t>
   </si>
   <si>
-    <t>Type(int)</t>
+    <t>Id(int)</t>
   </si>
   <si>
     <t>Name(string)</t>
@@ -68,25 +68,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,18 +119,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,7 +190,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,82 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,13 +245,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +323,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,145 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,37 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,22 +488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +498,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,152 +556,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +726,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,16 +735,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,7 +1170,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1213,69 +1192,55 @@
     <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:2">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
